--- a/Code/Results/Cases/Case_0_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.322581055420959</v>
+        <v>3.173141015532005</v>
       </c>
       <c r="D2">
-        <v>3.587676137624055</v>
+        <v>4.035425324497355</v>
       </c>
       <c r="E2">
-        <v>30.0080551466296</v>
+        <v>16.53723457708421</v>
       </c>
       <c r="F2">
-        <v>19.02594163773925</v>
+        <v>21.89869758807772</v>
       </c>
       <c r="G2">
-        <v>2.049334142820227</v>
+        <v>3.605196027482979</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.19197927551239</v>
+        <v>18.31535829197669</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.02733068126264</v>
+        <v>13.11107939293262</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.53048697083941</v>
+        <v>16.18344107474968</v>
       </c>
       <c r="O2">
-        <v>14.44141709339018</v>
+        <v>19.39020053596778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.08046547760665</v>
+        <v>3.061578761134364</v>
       </c>
       <c r="D3">
-        <v>3.486459603661984</v>
+        <v>4.001823076210073</v>
       </c>
       <c r="E3">
-        <v>27.81949392985767</v>
+        <v>15.59608990512626</v>
       </c>
       <c r="F3">
-        <v>18.20934470014006</v>
+        <v>21.83568393080377</v>
       </c>
       <c r="G3">
-        <v>2.055530957579017</v>
+        <v>3.607469045620589</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.72434006139471</v>
+        <v>18.31410290542723</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.69350394825013</v>
+        <v>12.53672800248722</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.59806914446923</v>
+        <v>16.21548897535106</v>
       </c>
       <c r="O3">
-        <v>14.03664650225649</v>
+        <v>19.41247630692527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.924062585062881</v>
+        <v>2.990320470498073</v>
       </c>
       <c r="D4">
-        <v>3.42238838424546</v>
+        <v>3.980827431120664</v>
       </c>
       <c r="E4">
-        <v>26.41281416562254</v>
+        <v>14.99323847450719</v>
       </c>
       <c r="F4">
-        <v>17.71422516639647</v>
+        <v>21.80501445857942</v>
       </c>
       <c r="G4">
-        <v>2.059435502916651</v>
+        <v>3.608937064847609</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.44745123011968</v>
+        <v>18.31930158091502</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.8289273421576</v>
+        <v>12.17133699759901</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.64342225989243</v>
+        <v>16.23697042658797</v>
       </c>
       <c r="O4">
-        <v>13.80246833100231</v>
+        <v>19.43246943495614</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.858401548797896</v>
+        <v>2.96061425917886</v>
       </c>
       <c r="D5">
-        <v>3.395821166918793</v>
+        <v>3.972184185711812</v>
       </c>
       <c r="E5">
-        <v>25.82341756379002</v>
+        <v>14.74155777864946</v>
       </c>
       <c r="F5">
-        <v>17.51429493954541</v>
+        <v>21.79453942385345</v>
       </c>
       <c r="G5">
-        <v>2.061052770651243</v>
+        <v>3.60955355724154</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.33728015859718</v>
+        <v>18.32291771466971</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.46512414894153</v>
+        <v>12.01943549805005</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.66285154220691</v>
+        <v>16.24617861553001</v>
       </c>
       <c r="O5">
-        <v>13.71065479202658</v>
+        <v>19.4421980334461</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.847383037705694</v>
+        <v>2.955642039611275</v>
       </c>
       <c r="D6">
-        <v>3.391382864630367</v>
+        <v>3.970743826655564</v>
       </c>
       <c r="E6">
-        <v>25.72456274171812</v>
+        <v>14.69941207327079</v>
       </c>
       <c r="F6">
-        <v>17.48121548122089</v>
+        <v>21.79292235685353</v>
       </c>
       <c r="G6">
-        <v>2.061322925107099</v>
+        <v>3.609657030200707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.31914969773007</v>
+        <v>18.32360849952544</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.40402143038894</v>
+        <v>11.99403749572</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.66613436206757</v>
+        <v>16.24773508941716</v>
       </c>
       <c r="O6">
-        <v>13.69562757602331</v>
+        <v>19.4439087423557</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.923184820967871</v>
+        <v>2.989922510101493</v>
       </c>
       <c r="D7">
-        <v>3.422031906460549</v>
+        <v>3.9807112135251</v>
       </c>
       <c r="E7">
-        <v>26.4049312452358</v>
+        <v>14.9898681762325</v>
       </c>
       <c r="F7">
-        <v>17.71152105000899</v>
+        <v>21.80486499173729</v>
       </c>
       <c r="G7">
-        <v>2.059457206775441</v>
+        <v>3.608945305051557</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.44595452678577</v>
+        <v>18.31934429103361</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.82406745723182</v>
+        <v>12.16930026863308</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.64368048198209</v>
+        <v>16.23709277097466</v>
       </c>
       <c r="O7">
-        <v>13.80121546040931</v>
+        <v>19.4325942457728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.240717580436383</v>
+        <v>3.135261467943206</v>
       </c>
       <c r="D8">
-        <v>3.553190937076847</v>
+        <v>4.023917212782567</v>
       </c>
       <c r="E8">
-        <v>29.26627610027074</v>
+        <v>16.2180590568508</v>
       </c>
       <c r="F8">
-        <v>18.74322293976221</v>
+        <v>21.87531019364223</v>
       </c>
       <c r="G8">
-        <v>2.051450783601197</v>
+        <v>3.605964780244687</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.0286639643639</v>
+        <v>18.31368476134472</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.57687731589596</v>
+        <v>12.91579888210009</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.55297468935428</v>
+        <v>16.19411721590336</v>
       </c>
       <c r="O8">
-        <v>14.29888066476334</v>
+        <v>19.39656652876989</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.801323841909606</v>
+        <v>3.39739539030199</v>
       </c>
       <c r="D9">
-        <v>3.794095736910966</v>
+        <v>4.105580841975652</v>
       </c>
       <c r="E9">
-        <v>34.39536194725977</v>
+        <v>18.51872983103294</v>
       </c>
       <c r="F9">
-        <v>20.80644540191081</v>
+        <v>22.07669464897036</v>
       </c>
       <c r="G9">
-        <v>2.03648866440858</v>
+        <v>3.600691384694117</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.24892623106908</v>
+        <v>18.35005030638882</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.65391972819842</v>
+        <v>14.27110911920816</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.40680172163982</v>
+        <v>16.12412472457299</v>
       </c>
       <c r="O9">
-        <v>15.38801787616151</v>
+        <v>19.37629391610841</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.174861159392523</v>
+        <v>3.57490649208226</v>
       </c>
       <c r="D10">
-        <v>3.959924833259637</v>
+        <v>4.163479825091446</v>
       </c>
       <c r="E10">
-        <v>37.89595330662309</v>
+        <v>20.16701408909895</v>
       </c>
       <c r="F10">
-        <v>22.33646658664314</v>
+        <v>22.26246997376724</v>
       </c>
       <c r="G10">
-        <v>2.025866105871073</v>
+        <v>3.597161335318237</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.18848158833324</v>
+        <v>18.40575700139582</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.69846009363643</v>
+        <v>15.19226507805495</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.32037817575953</v>
+        <v>16.08136772438491</v>
       </c>
       <c r="O10">
-        <v>16.25633705682656</v>
+        <v>19.39240895822138</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.336444241125628</v>
+        <v>3.652195308303011</v>
       </c>
       <c r="D11">
-        <v>4.032722688593879</v>
+        <v>4.189315881294052</v>
       </c>
       <c r="E11">
-        <v>39.43689867573347</v>
+        <v>20.87461755499322</v>
       </c>
       <c r="F11">
-        <v>23.03429925898693</v>
+        <v>22.35497958516645</v>
       </c>
       <c r="G11">
-        <v>2.021094053448691</v>
+        <v>3.595629329446449</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.62465985919624</v>
+        <v>18.43737801442916</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.5826744558812</v>
+        <v>15.59376333187598</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.28601477402824</v>
+        <v>16.06378993341679</v>
       </c>
       <c r="O11">
-        <v>16.66608217201109</v>
+        <v>19.40651472592361</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.396433929908824</v>
+        <v>3.68095152724795</v>
       </c>
       <c r="D12">
-        <v>4.059894255213773</v>
+        <v>4.199023115053564</v>
       </c>
       <c r="E12">
-        <v>40.01363260749356</v>
+        <v>21.1365358659214</v>
       </c>
       <c r="F12">
-        <v>23.29876576494581</v>
+        <v>22.39113852188376</v>
       </c>
       <c r="G12">
-        <v>2.019293801647739</v>
+        <v>3.595059750027636</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.79106822074677</v>
+        <v>18.45025147543688</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.91101104105707</v>
+        <v>15.74318731715966</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.27375064317957</v>
+        <v>16.05740229262519</v>
       </c>
       <c r="O12">
-        <v>16.82337259076703</v>
+        <v>19.41283192653635</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.383567326790809</v>
+        <v>3.674781300927937</v>
       </c>
       <c r="D13">
-        <v>4.054060193066922</v>
+        <v>4.196935946637916</v>
       </c>
       <c r="E13">
-        <v>39.88971392830562</v>
+        <v>21.08039497642221</v>
       </c>
       <c r="F13">
-        <v>23.24179896945288</v>
+        <v>22.38330128880224</v>
       </c>
       <c r="G13">
-        <v>2.019681246160944</v>
+        <v>3.595181950512909</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.75517428026783</v>
+        <v>18.44743902420678</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.84058508959167</v>
+        <v>15.71112379285945</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.27635804001159</v>
+        <v>16.05876604471556</v>
       </c>
       <c r="O13">
-        <v>16.78940224161156</v>
+        <v>19.41142800180721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.341403629221853</v>
+        <v>3.654571419606858</v>
       </c>
       <c r="D14">
-        <v>4.034966119278911</v>
+        <v>4.190116053770961</v>
       </c>
       <c r="E14">
-        <v>39.4844791763193</v>
+        <v>20.8962865044877</v>
       </c>
       <c r="F14">
-        <v>23.05605292304119</v>
+        <v>22.35793194413186</v>
       </c>
       <c r="G14">
-        <v>2.020945820195401</v>
+        <v>3.595582258543929</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.63832562499224</v>
+        <v>18.43841912543974</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.60981648569668</v>
+        <v>15.60610941230807</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.28499057546839</v>
+        <v>16.06325903682006</v>
       </c>
       <c r="O14">
-        <v>16.67897976047427</v>
+        <v>19.40701488833004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.315421169033805</v>
+        <v>3.642125316508765</v>
       </c>
       <c r="D15">
-        <v>4.023218511492979</v>
+        <v>4.185928614326929</v>
       </c>
       <c r="E15">
-        <v>39.23539668941297</v>
+        <v>20.78272971649286</v>
       </c>
       <c r="F15">
-        <v>22.94230516762643</v>
+        <v>22.3425386101276</v>
       </c>
       <c r="G15">
-        <v>2.021721238619136</v>
+        <v>3.59582883198664</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.5669132950342</v>
+        <v>18.43301115386425</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.46762120733693</v>
+        <v>15.54144207227748</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.29037686714332</v>
+        <v>16.06604609787149</v>
       </c>
       <c r="O15">
-        <v>16.61162064957573</v>
+        <v>19.40443880978365</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.164133515917131</v>
+        <v>3.569784621606364</v>
       </c>
       <c r="D16">
-        <v>3.955112819800779</v>
+        <v>4.16178091736611</v>
       </c>
       <c r="E16">
-        <v>37.79426370358655</v>
+        <v>20.1199240807476</v>
       </c>
       <c r="F16">
-        <v>22.29089284320145</v>
+        <v>22.2565833358173</v>
       </c>
       <c r="G16">
-        <v>2.026179029718923</v>
+        <v>3.59726293613773</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.16015014892064</v>
+        <v>18.40381656901016</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.63975989576931</v>
+        <v>15.16566502368815</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.32272659943925</v>
+        <v>16.08255410510793</v>
       </c>
       <c r="O16">
-        <v>16.22985622085945</v>
+        <v>19.39162359092817</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.069187035680259</v>
+        <v>3.524509020299491</v>
       </c>
       <c r="D17">
-        <v>3.912644426499184</v>
+        <v>4.146835469670913</v>
       </c>
       <c r="E17">
-        <v>36.89740219520658</v>
+        <v>19.7025276537457</v>
       </c>
       <c r="F17">
-        <v>21.89168765363757</v>
+        <v>22.20588604171683</v>
       </c>
       <c r="G17">
-        <v>2.028927914724301</v>
+        <v>3.598161580539632</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.91283525663572</v>
+        <v>18.38751279727215</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.12021392687974</v>
+        <v>14.93057489040494</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.34386539066173</v>
+        <v>16.09316042585988</v>
       </c>
       <c r="O17">
-        <v>15.99943235885908</v>
+        <v>19.3854984819811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.013790992830156</v>
+        <v>3.498142527446154</v>
       </c>
       <c r="D18">
-        <v>3.887970204594091</v>
+        <v>4.13819218492818</v>
       </c>
       <c r="E18">
-        <v>36.37666361985725</v>
+        <v>19.45847731759811</v>
       </c>
       <c r="F18">
-        <v>21.66224643602358</v>
+        <v>22.17748077836219</v>
       </c>
       <c r="G18">
-        <v>2.030514788252694</v>
+        <v>3.598685409879681</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.77141170503857</v>
+        <v>18.37872669087093</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.81706178946594</v>
+        <v>14.79371078959373</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.35648753521924</v>
+        <v>16.09943719204016</v>
       </c>
       <c r="O18">
-        <v>15.86828473561589</v>
+        <v>19.38261316086647</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.994899973387944</v>
+        <v>3.489159883207479</v>
       </c>
       <c r="D19">
-        <v>3.879573940644654</v>
+        <v>4.135257760216201</v>
       </c>
       <c r="E19">
-        <v>36.19949348161804</v>
+        <v>19.3751623292219</v>
       </c>
       <c r="F19">
-        <v>21.58459326424229</v>
+        <v>22.16799347838312</v>
       </c>
       <c r="G19">
-        <v>2.031053123129588</v>
+        <v>3.598863965452648</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.72367103528322</v>
+        <v>18.37585353038371</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.71367444233087</v>
+        <v>14.74709123821055</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.36083974158655</v>
+        <v>16.10159269341818</v>
       </c>
       <c r="O19">
-        <v>15.82411850657321</v>
+        <v>19.38174570031438</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.079375530781208</v>
+        <v>3.529362442878344</v>
       </c>
       <c r="D20">
-        <v>3.917190998792905</v>
+        <v>4.14843133818184</v>
       </c>
       <c r="E20">
-        <v>36.993376254924</v>
+        <v>19.74737136243604</v>
       </c>
       <c r="F20">
-        <v>21.93416653809249</v>
+        <v>22.2112049261536</v>
       </c>
       <c r="G20">
-        <v>2.028634704898227</v>
+        <v>3.598065199142189</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.93907717567928</v>
+        <v>18.3891871775585</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.17596723490014</v>
+        <v>14.95577175728344</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.34156688565637</v>
+        <v>16.09201312370917</v>
       </c>
       <c r="O20">
-        <v>16.02381791566423</v>
+        <v>19.38608449873916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.353820629268526</v>
+        <v>3.660521529181337</v>
       </c>
       <c r="D21">
-        <v>4.040585361076098</v>
+        <v>4.192121324848939</v>
       </c>
       <c r="E21">
-        <v>39.60368539754032</v>
+        <v>20.95052716553865</v>
       </c>
       <c r="F21">
-        <v>23.11060541665215</v>
+        <v>22.36535312802666</v>
       </c>
       <c r="G21">
-        <v>2.020574214680804</v>
+        <v>3.59546439229878</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.67261339259575</v>
+        <v>18.44104411907471</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.67777427159667</v>
+        <v>15.63702630681225</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.28243437027007</v>
+        <v>16.06193204868809</v>
       </c>
       <c r="O21">
-        <v>16.7113555712445</v>
+        <v>19.40828464229974</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.526203987921111</v>
+        <v>3.743255853002812</v>
       </c>
       <c r="D22">
-        <v>4.118919836116192</v>
+        <v>4.220228587482958</v>
       </c>
       <c r="E22">
-        <v>41.27044789419458</v>
+        <v>21.70169354592673</v>
       </c>
       <c r="F22">
-        <v>23.88072773877522</v>
+        <v>22.47265783600159</v>
       </c>
       <c r="G22">
-        <v>2.015344970282008</v>
+        <v>3.593826127434578</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.15924107290193</v>
+        <v>18.48017456251313</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.62148295058851</v>
+        <v>16.06699227994576</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.24816987528316</v>
+        <v>16.04383817319593</v>
       </c>
       <c r="O22">
-        <v>17.17312959831932</v>
+        <v>19.42848039552975</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.434837593758319</v>
+        <v>3.699376189602931</v>
       </c>
       <c r="D23">
-        <v>4.077327517266321</v>
+        <v>4.205269400869952</v>
       </c>
       <c r="E23">
-        <v>40.38423026826229</v>
+        <v>21.30398841869939</v>
       </c>
       <c r="F23">
-        <v>23.46958752889675</v>
+        <v>22.41479522226064</v>
       </c>
       <c r="G23">
-        <v>2.018133032248508</v>
+        <v>3.594694891177742</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.89885902872848</v>
+        <v>18.45881213587053</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.12123126128204</v>
+        <v>15.83893565675368</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.26604372705189</v>
+        <v>16.05335213273939</v>
       </c>
       <c r="O23">
-        <v>16.92552637231864</v>
+        <v>19.41718104555872</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.074771835314289</v>
+        <v>3.527169259000038</v>
       </c>
       <c r="D24">
-        <v>3.915136297640207</v>
+        <v>4.147710004378354</v>
       </c>
       <c r="E24">
-        <v>36.95000237860516</v>
+        <v>19.72711024448058</v>
       </c>
       <c r="F24">
-        <v>21.91496162086751</v>
+        <v>22.20879794763623</v>
       </c>
       <c r="G24">
-        <v>2.02876724466937</v>
+        <v>3.598108750780727</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.92721083132161</v>
+        <v>18.38842836094032</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.15077505799879</v>
+        <v>14.94438556553282</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.34260458114266</v>
+        <v>16.09253126119653</v>
       </c>
       <c r="O24">
-        <v>16.0127890752193</v>
+        <v>19.38581757920419</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.656378253647452</v>
+        <v>3.329056837437599</v>
       </c>
       <c r="D25">
-        <v>3.730804397827145</v>
+        <v>4.083840786152327</v>
       </c>
       <c r="E25">
-        <v>33.05686964760552</v>
+        <v>17.87407867818448</v>
       </c>
       <c r="F25">
-        <v>20.24521021107813</v>
+        <v>22.01550891827736</v>
       </c>
       <c r="G25">
-        <v>2.040465084428191</v>
+        <v>3.602057222888542</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.91099219370505</v>
+        <v>18.33512035540051</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.85976275166515</v>
+        <v>13.9170364687107</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.4427899578911</v>
+        <v>16.14153472852346</v>
       </c>
       <c r="O25">
-        <v>15.0813543254945</v>
+        <v>19.37634994729715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_202/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.173141015532005</v>
+        <v>4.322581055421055</v>
       </c>
       <c r="D2">
-        <v>4.035425324497355</v>
+        <v>3.587676137624001</v>
       </c>
       <c r="E2">
-        <v>16.53723457708421</v>
+        <v>30.00805514662952</v>
       </c>
       <c r="F2">
-        <v>21.89869758807772</v>
+        <v>19.02594163773929</v>
       </c>
       <c r="G2">
-        <v>3.605196027482979</v>
+        <v>2.049334142820227</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.31535829197669</v>
+        <v>14.19197927551244</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.11107939293262</v>
+        <v>21.0273306812626</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.18344107474968</v>
+        <v>11.5304869708394</v>
       </c>
       <c r="O2">
-        <v>19.39020053596778</v>
+        <v>14.44141709339023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.061578761134364</v>
+        <v>4.080465477606664</v>
       </c>
       <c r="D3">
-        <v>4.001823076210073</v>
+        <v>3.486459603661978</v>
       </c>
       <c r="E3">
-        <v>15.59608990512626</v>
+        <v>27.81949392985758</v>
       </c>
       <c r="F3">
-        <v>21.83568393080377</v>
+        <v>18.20934470014012</v>
       </c>
       <c r="G3">
-        <v>3.607469045620589</v>
+        <v>2.055530957579017</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.31410290542723</v>
+        <v>13.72434006139476</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.53672800248722</v>
+        <v>19.69350394825006</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.21548897535106</v>
+        <v>11.59806914446933</v>
       </c>
       <c r="O3">
-        <v>19.41247630692527</v>
+        <v>14.03664650225656</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.990320470498073</v>
+        <v>3.92406258506281</v>
       </c>
       <c r="D4">
-        <v>3.980827431120664</v>
+        <v>3.422388384245518</v>
       </c>
       <c r="E4">
-        <v>14.99323847450719</v>
+        <v>26.4128141656225</v>
       </c>
       <c r="F4">
-        <v>21.80501445857942</v>
+        <v>17.71422516639638</v>
       </c>
       <c r="G4">
-        <v>3.608937064847609</v>
+        <v>2.059435502916784</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.31930158091502</v>
+        <v>13.44745123011966</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.17133699759901</v>
+        <v>18.82892734215758</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.23697042658797</v>
+        <v>11.64342225989243</v>
       </c>
       <c r="O4">
-        <v>19.43246943495614</v>
+        <v>13.80246833100228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.96061425917886</v>
+        <v>3.858401548797838</v>
       </c>
       <c r="D5">
-        <v>3.972184185711812</v>
+        <v>3.395821166918726</v>
       </c>
       <c r="E5">
-        <v>14.74155777864946</v>
+        <v>25.82341756378993</v>
       </c>
       <c r="F5">
-        <v>21.79453942385345</v>
+        <v>17.51429493954539</v>
       </c>
       <c r="G5">
-        <v>3.60955355724154</v>
+        <v>2.061052770651243</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.32291771466971</v>
+        <v>13.33728015859722</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.01943549805005</v>
+        <v>18.46512414894153</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.24617861553001</v>
+        <v>11.66285154220695</v>
       </c>
       <c r="O5">
-        <v>19.4421980334461</v>
+        <v>13.71065479202659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.955642039611275</v>
+        <v>3.847383037705866</v>
       </c>
       <c r="D6">
-        <v>3.970743826655564</v>
+        <v>3.391382864630367</v>
       </c>
       <c r="E6">
-        <v>14.69941207327079</v>
+        <v>25.72456274171812</v>
       </c>
       <c r="F6">
-        <v>21.79292235685353</v>
+        <v>17.48121548122074</v>
       </c>
       <c r="G6">
-        <v>3.609657030200707</v>
+        <v>2.061322925106962</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.32360849952544</v>
+        <v>13.31914969772995</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.99403749572</v>
+        <v>18.40402143038899</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.24773508941716</v>
+        <v>11.66613436206755</v>
       </c>
       <c r="O6">
-        <v>19.4439087423557</v>
+        <v>13.69562757602321</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.989922510101493</v>
+        <v>3.923184820967772</v>
       </c>
       <c r="D7">
-        <v>3.9807112135251</v>
+        <v>3.422031906460498</v>
       </c>
       <c r="E7">
-        <v>14.9898681762325</v>
+        <v>26.40493124523585</v>
       </c>
       <c r="F7">
-        <v>21.80486499173729</v>
+        <v>17.71152105000901</v>
       </c>
       <c r="G7">
-        <v>3.608945305051557</v>
+        <v>2.059457206775442</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.31934429103361</v>
+        <v>13.44595452678578</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.16930026863308</v>
+        <v>18.82406745723182</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.23709277097466</v>
+        <v>11.64368048198205</v>
       </c>
       <c r="O7">
-        <v>19.4325942457728</v>
+        <v>13.80121546040928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.135261467943206</v>
+        <v>4.240717580436219</v>
       </c>
       <c r="D8">
-        <v>4.023917212782567</v>
+        <v>3.553190937076793</v>
       </c>
       <c r="E8">
-        <v>16.2180590568508</v>
+        <v>29.26627610027077</v>
       </c>
       <c r="F8">
-        <v>21.87531019364223</v>
+        <v>18.74322293976223</v>
       </c>
       <c r="G8">
-        <v>3.605964780244687</v>
+        <v>2.05145078360133</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.31368476134472</v>
+        <v>14.02866396436391</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.91579888210009</v>
+        <v>20.57687731589598</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.19411721590336</v>
+        <v>11.55297468935427</v>
       </c>
       <c r="O8">
-        <v>19.39656652876989</v>
+        <v>14.29888066476332</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.39739539030199</v>
+        <v>4.801323841909497</v>
       </c>
       <c r="D9">
-        <v>4.105580841975652</v>
+        <v>3.794095736910909</v>
       </c>
       <c r="E9">
-        <v>18.51872983103294</v>
+        <v>34.3953619472598</v>
       </c>
       <c r="F9">
-        <v>22.07669464897036</v>
+        <v>20.8064454019108</v>
       </c>
       <c r="G9">
-        <v>3.600691384694117</v>
+        <v>2.036488664408179</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.35005030638882</v>
+        <v>15.24892623106908</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.27110911920816</v>
+        <v>23.65391972819844</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.12412472457299</v>
+        <v>11.40680172163972</v>
       </c>
       <c r="O9">
-        <v>19.37629391610841</v>
+        <v>15.38801787616148</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.57490649208226</v>
+        <v>5.174861159392479</v>
       </c>
       <c r="D10">
-        <v>4.163479825091446</v>
+        <v>3.9599248332596</v>
       </c>
       <c r="E10">
-        <v>20.16701408909895</v>
+        <v>37.89595330662312</v>
       </c>
       <c r="F10">
-        <v>22.26246997376724</v>
+        <v>22.33646658664317</v>
       </c>
       <c r="G10">
-        <v>3.597161335318237</v>
+        <v>2.025866105871073</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.40575700139582</v>
+        <v>16.18848158833324</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.19226507805495</v>
+        <v>25.69846009363648</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.08136772438491</v>
+        <v>11.32037817575953</v>
       </c>
       <c r="O10">
-        <v>19.39240895822138</v>
+        <v>16.25633705682655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.652195308303011</v>
+        <v>5.336444241125643</v>
       </c>
       <c r="D11">
-        <v>4.189315881294052</v>
+        <v>4.032722688593908</v>
       </c>
       <c r="E11">
-        <v>20.87461755499322</v>
+        <v>39.43689867573362</v>
       </c>
       <c r="F11">
-        <v>22.35497958516645</v>
+        <v>23.03429925898693</v>
       </c>
       <c r="G11">
-        <v>3.595629329446449</v>
+        <v>2.021094053448559</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.43737801442916</v>
+        <v>16.62465985919621</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.59376333187598</v>
+        <v>26.58267445588127</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.06378993341679</v>
+        <v>11.28601477402817</v>
       </c>
       <c r="O11">
-        <v>19.40651472592361</v>
+        <v>16.66608217201106</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.68095152724795</v>
+        <v>5.396433929908772</v>
       </c>
       <c r="D12">
-        <v>4.199023115053564</v>
+        <v>4.059894255213814</v>
       </c>
       <c r="E12">
-        <v>21.1365358659214</v>
+        <v>40.01363260749364</v>
       </c>
       <c r="F12">
-        <v>22.39113852188376</v>
+        <v>23.2987657649458</v>
       </c>
       <c r="G12">
-        <v>3.595059750027636</v>
+        <v>2.01929380164747</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.45025147543688</v>
+        <v>16.79106822074675</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.74318731715966</v>
+        <v>26.91101104105714</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.05740229262519</v>
+        <v>11.27375064317955</v>
       </c>
       <c r="O12">
-        <v>19.41283192653635</v>
+        <v>16.82337259076698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.674781300927937</v>
+        <v>5.383567326790867</v>
       </c>
       <c r="D13">
-        <v>4.196935946637916</v>
+        <v>4.054060193066922</v>
       </c>
       <c r="E13">
-        <v>21.08039497642221</v>
+        <v>39.88971392830557</v>
       </c>
       <c r="F13">
-        <v>22.38330128880224</v>
+        <v>23.24179896945287</v>
       </c>
       <c r="G13">
-        <v>3.595181950512909</v>
+        <v>2.019681246161077</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.44743902420678</v>
+        <v>16.7551742802678</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.71112379285945</v>
+        <v>26.84058508959168</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.05876604471556</v>
+        <v>11.2763580400116</v>
       </c>
       <c r="O13">
-        <v>19.41142800180721</v>
+        <v>16.78940224161153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.654571419606858</v>
+        <v>5.341403629221837</v>
       </c>
       <c r="D14">
-        <v>4.190116053770961</v>
+        <v>4.034966119278973</v>
       </c>
       <c r="E14">
-        <v>20.8962865044877</v>
+        <v>39.48447917631937</v>
       </c>
       <c r="F14">
-        <v>22.35793194413186</v>
+        <v>23.05605292304119</v>
       </c>
       <c r="G14">
-        <v>3.595582258543929</v>
+        <v>2.020945820195268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.43841912543974</v>
+        <v>16.63832562499222</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.60610941230807</v>
+        <v>26.60981648569672</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.06325903682006</v>
+        <v>11.2849905754684</v>
       </c>
       <c r="O14">
-        <v>19.40701488833004</v>
+        <v>16.67897976047423</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.642125316508765</v>
+        <v>5.315421169033747</v>
       </c>
       <c r="D15">
-        <v>4.185928614326929</v>
+        <v>4.023218511493023</v>
       </c>
       <c r="E15">
-        <v>20.78272971649286</v>
+        <v>39.23539668941294</v>
       </c>
       <c r="F15">
-        <v>22.3425386101276</v>
+        <v>22.94230516762644</v>
       </c>
       <c r="G15">
-        <v>3.59582883198664</v>
+        <v>2.021721238619136</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.43301115386425</v>
+        <v>16.56691329503423</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.54144207227748</v>
+        <v>26.46762120733695</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.06604609787149</v>
+        <v>11.29037686714335</v>
       </c>
       <c r="O15">
-        <v>19.40443880978365</v>
+        <v>16.61162064957576</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.569784621606364</v>
+        <v>5.164133515917048</v>
       </c>
       <c r="D16">
-        <v>4.16178091736611</v>
+        <v>3.9551128198007</v>
       </c>
       <c r="E16">
-        <v>20.1199240807476</v>
+        <v>37.79426370358661</v>
       </c>
       <c r="F16">
-        <v>22.2565833358173</v>
+        <v>22.29089284320142</v>
       </c>
       <c r="G16">
-        <v>3.59726293613773</v>
+        <v>2.026179029719057</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.40381656901016</v>
+        <v>16.16015014892056</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.16566502368815</v>
+        <v>25.63975989576939</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.08255410510793</v>
+        <v>11.3227265994391</v>
       </c>
       <c r="O16">
-        <v>19.39162359092817</v>
+        <v>16.22985622085936</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.524509020299491</v>
+        <v>5.069187035680221</v>
       </c>
       <c r="D17">
-        <v>4.146835469670913</v>
+        <v>3.912644426499327</v>
       </c>
       <c r="E17">
-        <v>19.7025276537457</v>
+        <v>36.89740219520668</v>
       </c>
       <c r="F17">
-        <v>22.20588604171683</v>
+        <v>21.89168765363756</v>
       </c>
       <c r="G17">
-        <v>3.598161580539632</v>
+        <v>2.028927914724299</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.38751279727215</v>
+        <v>15.91283525663572</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.93057489040494</v>
+        <v>25.12021392687973</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.09316042585988</v>
+        <v>11.3438653906617</v>
       </c>
       <c r="O17">
-        <v>19.3854984819811</v>
+        <v>15.99943235885907</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.498142527446154</v>
+        <v>5.013790992830165</v>
       </c>
       <c r="D18">
-        <v>4.13819218492818</v>
+        <v>3.88797020459397</v>
       </c>
       <c r="E18">
-        <v>19.45847731759811</v>
+        <v>36.37666361985732</v>
       </c>
       <c r="F18">
-        <v>22.17748077836219</v>
+        <v>21.66224643602354</v>
       </c>
       <c r="G18">
-        <v>3.598685409879681</v>
+        <v>2.03051478825256</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.37872669087093</v>
+        <v>15.77141170503852</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79371078959373</v>
+        <v>24.81706178946601</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.09943719204016</v>
+        <v>11.35648753521915</v>
       </c>
       <c r="O18">
-        <v>19.38261316086647</v>
+        <v>15.86828473561581</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.489159883207479</v>
+        <v>4.994899973388026</v>
       </c>
       <c r="D19">
-        <v>4.135257760216201</v>
+        <v>3.879573940644642</v>
       </c>
       <c r="E19">
-        <v>19.3751623292219</v>
+        <v>36.19949348161804</v>
       </c>
       <c r="F19">
-        <v>22.16799347838312</v>
+        <v>21.58459326424227</v>
       </c>
       <c r="G19">
-        <v>3.598863965452648</v>
+        <v>2.031053123129589</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.37585353038371</v>
+        <v>15.72367103528321</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.74709123821055</v>
+        <v>24.71367444233088</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.10159269341818</v>
+        <v>11.36083974158651</v>
       </c>
       <c r="O19">
-        <v>19.38174570031438</v>
+        <v>15.8241185065732</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.529362442878344</v>
+        <v>5.079375530781193</v>
       </c>
       <c r="D20">
-        <v>4.14843133818184</v>
+        <v>3.917190998792911</v>
       </c>
       <c r="E20">
-        <v>19.74737136243604</v>
+        <v>36.99337625492405</v>
       </c>
       <c r="F20">
-        <v>22.2112049261536</v>
+        <v>21.93416653809248</v>
       </c>
       <c r="G20">
-        <v>3.598065199142189</v>
+        <v>2.028634704898093</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.3891871775585</v>
+        <v>15.93907717567927</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.95577175728344</v>
+        <v>25.17596723490014</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.09201312370917</v>
+        <v>11.34156688565637</v>
       </c>
       <c r="O20">
-        <v>19.38608449873916</v>
+        <v>16.02381791566421</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.660521529181337</v>
+        <v>5.353820629268504</v>
       </c>
       <c r="D21">
-        <v>4.192121324848939</v>
+        <v>4.040585361076015</v>
       </c>
       <c r="E21">
-        <v>20.95052716553865</v>
+        <v>39.60368539754024</v>
       </c>
       <c r="F21">
-        <v>22.36535312802666</v>
+        <v>23.11060541665218</v>
       </c>
       <c r="G21">
-        <v>3.59546439229878</v>
+        <v>2.020574214680937</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.44104411907471</v>
+        <v>16.67261339259574</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.63702630681225</v>
+        <v>26.67777427159674</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.06193204868809</v>
+        <v>11.28243437027001</v>
       </c>
       <c r="O21">
-        <v>19.40828464229974</v>
+        <v>16.71135557124448</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.743255853002812</v>
+        <v>5.526203987921133</v>
       </c>
       <c r="D22">
-        <v>4.220228587482958</v>
+        <v>4.118919836116184</v>
       </c>
       <c r="E22">
-        <v>21.70169354592673</v>
+        <v>41.27044789419456</v>
       </c>
       <c r="F22">
-        <v>22.47265783600159</v>
+        <v>23.88072773877527</v>
       </c>
       <c r="G22">
-        <v>3.593826127434578</v>
+        <v>2.015344970282276</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.48017456251313</v>
+        <v>17.15924107290196</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.06699227994576</v>
+        <v>27.62148295058856</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.04383817319593</v>
+        <v>11.24816987528312</v>
       </c>
       <c r="O22">
-        <v>19.42848039552975</v>
+        <v>17.17312959831933</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.699376189602931</v>
+        <v>5.434837593758263</v>
       </c>
       <c r="D23">
-        <v>4.205269400869952</v>
+        <v>4.077327517266462</v>
       </c>
       <c r="E23">
-        <v>21.30398841869939</v>
+        <v>40.38423026826226</v>
       </c>
       <c r="F23">
-        <v>22.41479522226064</v>
+        <v>23.46958752889669</v>
       </c>
       <c r="G23">
-        <v>3.594694891177742</v>
+        <v>2.018133032248508</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.45881213587053</v>
+        <v>16.89885902872847</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.83893565675368</v>
+        <v>27.12123126128201</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.05335213273939</v>
+        <v>11.26604372705189</v>
       </c>
       <c r="O23">
-        <v>19.41718104555872</v>
+        <v>16.92552637231863</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.527169259000038</v>
+        <v>5.074771835314163</v>
       </c>
       <c r="D24">
-        <v>4.147710004378354</v>
+        <v>3.915136297640307</v>
       </c>
       <c r="E24">
-        <v>19.72711024448058</v>
+        <v>36.95000237860507</v>
       </c>
       <c r="F24">
-        <v>22.20879794763623</v>
+        <v>21.91496162086754</v>
       </c>
       <c r="G24">
-        <v>3.598108750780727</v>
+        <v>2.028767244669368</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.38842836094032</v>
+        <v>15.92721083132164</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.94438556553282</v>
+        <v>25.15077505799882</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.09253126119653</v>
+        <v>11.34260458114263</v>
       </c>
       <c r="O24">
-        <v>19.38581757920419</v>
+        <v>16.01278907521932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.329056837437599</v>
+        <v>4.656378253647468</v>
       </c>
       <c r="D25">
-        <v>4.083840786152327</v>
+        <v>3.730804397827256</v>
       </c>
       <c r="E25">
-        <v>17.87407867818448</v>
+        <v>33.05686964760554</v>
       </c>
       <c r="F25">
-        <v>22.01550891827736</v>
+        <v>20.24521021107818</v>
       </c>
       <c r="G25">
-        <v>3.602057222888542</v>
+        <v>2.040465084428323</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.33512035540051</v>
+        <v>14.91099219370511</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.9170364687107</v>
+        <v>22.85976275166511</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.14153472852346</v>
+        <v>11.44278995789115</v>
       </c>
       <c r="O25">
-        <v>19.37634994729715</v>
+        <v>15.08135432549457</v>
       </c>
     </row>
   </sheetData>
